--- a/Descargas/R15_5º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_5º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
